--- a/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
+++ b/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-165" windowWidth="15600" windowHeight="4380" tabRatio="886"/>
+    <workbookView xWindow="45" yWindow="-150" windowWidth="15600" windowHeight="4365" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="タクチケ　実績データ取込　変更内容" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -114,13 +114,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現行</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>変更内容</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -163,55 +156,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実車発地／実車着地の追加</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ発行テーブル(TBL_TAXITICKET_HAKKO)に項目追加
-・TKT_HATUTI NVARCHAR(100)
-・TKT_CHAKUTI NVARCHAR(100)</t>
-    <rPh sb="4" eb="6">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実績データ取込
-①タクチケ実績取込(TaxiJisseki.aspx)
-②その他タクチケ実績取込(TaxiJissekiOTH.aspx)</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CSV→TBL_TAXITICKET_HAKKO取込時の項目として
 TKT_HATUTIとTKT_CHAKUTIを追加</t>
     <rPh sb="24" eb="26">
@@ -229,20 +173,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケメンテナンス一覧(TaxiMaintenance.aspx)</t>
-    <rPh sb="10" eb="12">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケメンテナンス登録(TaxiMaintenanceRegist.aspx)</t>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面の一覧表示項目として、実車発地と実車着地を追加</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -336,19 +266,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケ実績未精算CSV(TaxiMenu.aspx)</t>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CSV出力項目として、実車発地と実車着地を追加</t>
     <rPh sb="3" eb="5">
       <t>シュツリョク</t>
@@ -377,21 +294,112 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケ台帳CSV(TaxiMeisaiCsv.aspx)</t>
+    <t>プログラム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルレイアウト変更</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実績データ取込
+①タクチケ実績取込
+②その他タクチケ実績取込</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①TaxiJisseki.aspx
+②TaxiJissekiOTH.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ発行テーブル(TBL_TAXITICKET_HAKKO)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目追加
+・TKT_HATUTI NVARCHAR(100)
+・TKT_CHAKUTI NVARCHAR(100)</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケメンテナンス一覧</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiMaintenance.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケメンテナンスCSV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケメンテナンス登録</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiMaintenanceRegist.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ実績未精算CSV</t>
+    <rPh sb="4" eb="6">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiMenu.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ台帳CSV</t>
     <rPh sb="4" eb="6">
       <t>ダイチョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケメンテナンスCSV(TaxiMaintenance.aspx)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ一覧CSV(TaxiJissekiCsv.aspx)</t>
+    <t>TaxiMeisaiCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ一覧CSV</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiJissekiCsv.aspx</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -639,15 +647,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,15 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1004,7 +1012,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1014,246 +1022,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="16" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="13" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13" t="s">
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="15">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="18">
         <v>42563</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="13" t="s">
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1278,70 +1286,70 @@
     </row>
     <row r="6" spans="1:59" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12" t="s">
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1349,537 +1357,527 @@
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
     </row>
-    <row r="7" spans="1:59" s="3" customFormat="1" ht="46.5" customHeight="1" thickTop="1">
+    <row r="7" spans="1:59" s="3" customFormat="1" ht="38.25" customHeight="1" thickTop="1">
       <c r="A7" s="8">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
     </row>
-    <row r="8" spans="1:59" s="3" customFormat="1" ht="56.25" customHeight="1">
+    <row r="8" spans="1:59" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="A8" s="6">
         <f t="shared" ref="A8:A14" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
     </row>
     <row r="10" spans="1:59" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="64.5" customHeight="1">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
     </row>
     <row r="12" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="X14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
@@ -1894,17 +1892,43 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="X14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="K10:W10"/>
     <mergeCell ref="X10:AJ10"/>
     <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
+++ b/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
@@ -10,9 +10,9 @@
     <sheet name="タクチケ　実績データ取込　変更内容" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'タクチケ　実績データ取込　変更内容'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'タクチケ　実績データ取込　変更内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -647,62 +647,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,7 +1012,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:J7"/>
+      <selection pane="bottomRight" activeCell="AK12" sqref="AK12:AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1022,246 +1022,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="19" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="16" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16" t="s">
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16" t="s">
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="18">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="15">
         <v>42563</v>
       </c>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="16" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1288,68 +1288,68 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15" t="s">
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15" t="s">
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1362,64 +1362,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="9" t="s">
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="27"/>
+      <c r="BA7" s="27"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="A8" s="6">
@@ -1440,18 +1440,18 @@
       <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
       <c r="X8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1467,23 +1467,23 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="6">
@@ -1501,21 +1501,21 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
       <c r="X9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1531,23 +1531,23 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="12"/>
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="12"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
     </row>
     <row r="10" spans="1:59" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="6">
@@ -1565,21 +1565,21 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
       <c r="X10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1595,23 +1595,23 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="64.5" customHeight="1">
       <c r="A11" s="6">
@@ -1629,21 +1629,21 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
       <c r="X11" s="11" t="s">
         <v>17</v>
       </c>
@@ -1659,23 +1659,23 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="12"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
     </row>
     <row r="12" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="6">
@@ -1693,21 +1693,21 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1723,23 +1723,23 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="12"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A13" s="6">
@@ -1757,21 +1757,21 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
       <c r="X13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1787,97 +1787,116 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="13" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
@@ -1892,47 +1911,28 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:W14"/>
     <mergeCell ref="X14:AJ14"/>
     <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="K11:W11"/>
     <mergeCell ref="X11:AJ11"/>
     <mergeCell ref="AK11:AV11"/>
     <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" cellComments="asDisplayed" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" cellComments="asDisplayed" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>

--- a/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
+++ b/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
@@ -77,14 +77,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トップツアー株式会社
-Monolith</t>
-    <rPh sb="6" eb="10">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>変更・確認項目　管理表</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -400,6 +392,17 @@
   </si>
   <si>
     <t>TaxiJissekiCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東武トップツアーズ株式会社
+Monolith</t>
+    <rPh sb="0" eb="2">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カブシキガイシャ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -647,62 +650,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,7 +1015,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK12" sqref="AK12:AV12"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1022,246 +1025,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13" t="s">
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13" t="s">
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="15">
+      <c r="A2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="16">
         <v>42563</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="13" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1286,10 +1289,10 @@
     </row>
     <row r="6" spans="1:59" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1300,7 +1303,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -1315,7 +1318,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
@@ -1330,7 +1333,7 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
@@ -1344,7 +1347,7 @@
       <c r="AU6" s="12"/>
       <c r="AV6" s="12"/>
       <c r="AW6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX6" s="12"/>
       <c r="AY6" s="12"/>
@@ -1362,64 +1365,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27" t="s">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="A8" s="6">
@@ -1427,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1438,22 +1441,22 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
       <c r="X8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
@@ -1467,23 +1470,23 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="9"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="6">
@@ -1491,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1501,23 +1504,23 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="K9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
       <c r="X9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
@@ -1531,23 +1534,23 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
     </row>
     <row r="10" spans="1:59" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="6">
@@ -1555,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1565,23 +1568,23 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="K10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
       <c r="X10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
@@ -1595,23 +1598,23 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="64.5" customHeight="1">
       <c r="A11" s="6">
@@ -1619,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1629,23 +1632,23 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="K11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
       <c r="X11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
@@ -1659,23 +1662,23 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
     </row>
     <row r="12" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="6">
@@ -1683,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1693,23 +1696,23 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="K12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
       <c r="X12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -1723,23 +1726,23 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A13" s="6">
@@ -1747,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1757,23 +1760,23 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="K13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
       <c r="X13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
@@ -1787,116 +1790,106 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="X14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
@@ -1913,22 +1906,32 @@
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="X14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
+++ b/20 開発資料/05.改修管理/140_改修管理_タクチケ実績データ取込.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'タクチケ　実績データ取込　変更内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -112,16 +112,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変更理由</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リユウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -403,6 +393,23 @@
     <rPh sb="9" eb="13">
       <t>カブシキガイシャ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Monolithに関するご相談_20160408.xlsx」
+①-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Monolithに関するご相談_20160408.xlsx」
+①-2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -650,62 +657,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,7 +1022,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AK9" sqref="AK9:AV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1095,7 +1102,7 @@
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1106,7 +1113,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -1289,70 +1296,70 @@
     </row>
     <row r="6" spans="1:59" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12" t="s">
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1365,64 +1372,66 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="9" t="s">
+      <c r="B7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="27"/>
+      <c r="BA7" s="27"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="A8" s="6">
@@ -1430,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1441,22 +1450,22 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
       <c r="X8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
@@ -1470,23 +1479,25 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
+      <c r="AK8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="6">
@@ -1494,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1504,23 +1515,23 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="K9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
       <c r="X9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
@@ -1534,23 +1545,23 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
     </row>
     <row r="10" spans="1:59" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="6">
@@ -1558,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1568,23 +1579,23 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="K10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
       <c r="X10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
@@ -1598,23 +1609,23 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="64.5" customHeight="1">
       <c r="A11" s="6">
@@ -1622,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1632,23 +1643,23 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
+      <c r="K11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
       <c r="X11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
@@ -1662,23 +1673,23 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
     </row>
     <row r="12" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="6">
@@ -1686,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1696,23 +1707,23 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="K12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -1726,23 +1737,23 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A13" s="6">
@@ -1750,7 +1761,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1760,23 +1771,23 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="K13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
       <c r="X13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
@@ -1790,90 +1801,132 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
-      <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="26"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="AW14:BA14"/>
     <mergeCell ref="B12:J12"/>
@@ -1890,48 +1943,6 @@
     <mergeCell ref="X11:AJ11"/>
     <mergeCell ref="AK11:AV11"/>
     <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
